--- a/Energy Consumption15.xlsx
+++ b/Energy Consumption15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.183115950683105</v>
+        <v>7.978418581042527</v>
       </c>
       <c r="C2" t="n">
-        <v>1.634685631911804</v>
+        <v>0.7408803578404031</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.039527067595079</v>
+        <v>14.47477963335235</v>
       </c>
       <c r="C3" t="n">
-        <v>4.025952215911422</v>
+        <v>1.4896011090474</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.768252978560139</v>
+        <v>14.59153928952939</v>
       </c>
       <c r="C4" t="n">
-        <v>5.649974510496333</v>
+        <v>2.325090712013005</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.651311109638968</v>
+        <v>17.08897116917147</v>
       </c>
       <c r="C5" t="n">
-        <v>7.944593505529758</v>
+        <v>3.206358666379736</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.52593476146347</v>
+        <v>18.42736315900551</v>
       </c>
       <c r="C6" t="n">
-        <v>9.623907189588909</v>
+        <v>4.119545177541847</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.65697598013116</v>
+        <v>18.52899791702236</v>
       </c>
       <c r="C7" t="n">
-        <v>11.39230217234969</v>
+        <v>4.916245899095418</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.46085418858986</v>
+        <v>24.65937219061949</v>
       </c>
       <c r="C8" t="n">
-        <v>13.35161920131558</v>
+        <v>5.727784297528979</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.53217453410323</v>
+        <v>25.87882233437227</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3114417119258</v>
+        <v>6.572569400737355</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.46687289349276</v>
+        <v>29.02464985940152</v>
       </c>
       <c r="C10" t="n">
-        <v>16.86404043091061</v>
+        <v>7.45878303424291</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1973397578825</v>
+        <v>29.11796794180655</v>
       </c>
       <c r="C11" t="n">
-        <v>18.58528058013912</v>
+        <v>8.353895251220521</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.79226916132775</v>
+        <v>29.87496845137489</v>
       </c>
       <c r="C12" t="n">
-        <v>20.28111443003091</v>
+        <v>9.575642558799883</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.35931093308906</v>
+        <v>29.99778393585725</v>
       </c>
       <c r="C13" t="n">
-        <v>22.28465693247896</v>
+        <v>10.54000525353741</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.91951542118036</v>
+        <v>37.08746538175033</v>
       </c>
       <c r="C14" t="n">
-        <v>24.52197438653743</v>
+        <v>11.70490030839822</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.81281301044781</v>
+        <v>37.89073514459027</v>
       </c>
       <c r="C15" t="n">
-        <v>26.37277714916559</v>
+        <v>12.62902853606904</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.75686947970249</v>
+        <v>37.95772166562909</v>
       </c>
       <c r="C16" t="n">
-        <v>28.86590262575927</v>
+        <v>13.52938127026607</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.3938897038414</v>
+        <v>38.87991126865267</v>
       </c>
       <c r="C17" t="n">
-        <v>30.49736201106697</v>
+        <v>14.2734350313667</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.75324469747819</v>
+        <v>39.26863240922653</v>
       </c>
       <c r="C18" t="n">
-        <v>32.41016638992458</v>
+        <v>15.23408444296631</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.2248082931067</v>
+        <v>39.38645467148035</v>
       </c>
       <c r="C19" t="n">
-        <v>34.36269074543188</v>
+        <v>16.26981379724187</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>35.55312553439688</v>
+        <v>41.90646476217339</v>
       </c>
       <c r="C20" t="n">
-        <v>36.20849843453399</v>
+        <v>17.08572752911935</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.27072985749383</v>
+        <v>42.15913665555601</v>
       </c>
       <c r="C21" t="n">
-        <v>37.91212333826613</v>
+        <v>17.95484496064131</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.5524269864603</v>
+        <v>42.19407510612744</v>
       </c>
       <c r="C22" t="n">
-        <v>39.4800836839369</v>
+        <v>18.82954127385875</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.55965288849362</v>
+        <v>42.92703715619879</v>
       </c>
       <c r="C23" t="n">
-        <v>41.60285888280105</v>
+        <v>19.84651201071057</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.85759088530129</v>
+        <v>43.94464527089828</v>
       </c>
       <c r="C24" t="n">
-        <v>43.50119614958623</v>
+        <v>20.71802428192277</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.11916975606146</v>
+        <v>44.2724540647949</v>
       </c>
       <c r="C25" t="n">
-        <v>45.14424603934016</v>
+        <v>21.592662500572</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.61754811168966</v>
+        <v>45.14361775815542</v>
       </c>
       <c r="C26" t="n">
-        <v>47.00508632088144</v>
+        <v>22.32240559561387</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>57.79000194847465</v>
+        <v>55.49259450074115</v>
       </c>
       <c r="C27" t="n">
-        <v>48.74655254251065</v>
+        <v>23.26361592395075</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.21262549951022</v>
+        <v>60.09635938348296</v>
       </c>
       <c r="C28" t="n">
-        <v>51.0307344646044</v>
+        <v>24.14476736346783</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>64.72856358682503</v>
+        <v>61.47530979211123</v>
       </c>
       <c r="C29" t="n">
-        <v>52.61428690777051</v>
+        <v>24.95872323212815</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.39665670728365</v>
+        <v>61.53804947706858</v>
       </c>
       <c r="C30" t="n">
-        <v>54.44832839712218</v>
+        <v>25.84761512960964</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69.92402575150767</v>
+        <v>61.66730947973826</v>
       </c>
       <c r="C31" t="n">
-        <v>56.08751115104356</v>
+        <v>26.83911509348242</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>71.25538971227854</v>
+        <v>63.33661129260693</v>
       </c>
       <c r="C32" t="n">
-        <v>57.69525214913286</v>
+        <v>27.70889178186824</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.16422493568874</v>
+        <v>66.18426747375798</v>
       </c>
       <c r="C33" t="n">
-        <v>59.71757722959749</v>
+        <v>28.56221335582747</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>76.32608607378256</v>
+        <v>66.25355162560798</v>
       </c>
       <c r="C34" t="n">
-        <v>61.41923158259354</v>
+        <v>29.5123779748203</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>78.21729781834705</v>
+        <v>69.41584862319266</v>
       </c>
       <c r="C35" t="n">
-        <v>63.00633365016983</v>
+        <v>30.31934161777221</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>79.49106705257591</v>
+        <v>69.89414603213366</v>
       </c>
       <c r="C36" t="n">
-        <v>64.97032114440019</v>
+        <v>31.33460733835416</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>81.2687076823496</v>
+        <v>69.96897584597671</v>
       </c>
       <c r="C37" t="n">
-        <v>66.84678363323584</v>
+        <v>32.27800753011753</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.7522648302165</v>
+        <v>75.12501149406354</v>
       </c>
       <c r="C38" t="n">
-        <v>68.40649542165275</v>
+        <v>33.16626417228397</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.77862344480742</v>
+        <v>75.22537377423372</v>
       </c>
       <c r="C39" t="n">
-        <v>70.42255049003423</v>
+        <v>34.10957171608733</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83.45553518288722</v>
+        <v>77.03067058810265</v>
       </c>
       <c r="C40" t="n">
-        <v>72.68240842615471</v>
+        <v>34.98768375666029</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>87.5380219775315</v>
+        <v>77.08711983727127</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20977284722264</v>
+        <v>35.99891035389001</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.84922612912293</v>
+        <v>77.4402315839798</v>
       </c>
       <c r="C42" t="n">
-        <v>75.66152265344878</v>
+        <v>36.9384740180268</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91.29243168155271</v>
+        <v>79.77165615589128</v>
       </c>
       <c r="C43" t="n">
-        <v>77.37306127516794</v>
+        <v>37.88935953937701</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.11142420300283</v>
+        <v>79.84733342660105</v>
       </c>
       <c r="C44" t="n">
-        <v>79.2739036966362</v>
+        <v>38.75037202071826</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.85423102812652</v>
+        <v>82.41453877158258</v>
       </c>
       <c r="C45" t="n">
-        <v>80.78104577350611</v>
+        <v>40.0533447745875</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>95.23660262175623</v>
+        <v>82.57651182041016</v>
       </c>
       <c r="C46" t="n">
-        <v>82.80977856083449</v>
+        <v>40.91375327094882</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.72569364517906</v>
+        <v>92.34659287029028</v>
       </c>
       <c r="C47" t="n">
-        <v>84.30067243349573</v>
+        <v>41.74620013022608</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>98.50645443687662</v>
+        <v>92.60165305046408</v>
       </c>
       <c r="C48" t="n">
-        <v>86.0892158379193</v>
+        <v>42.66165393958249</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93.58036577957165</v>
+      </c>
+      <c r="C49" t="n">
+        <v>43.55683382436312</v>
       </c>
     </row>
   </sheetData>
